--- a/Code/Results/Cases/Case_5_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.54149532268307</v>
+        <v>11.33622468515676</v>
       </c>
       <c r="C2">
-        <v>7.267684072983053</v>
+        <v>4.24680420599453</v>
       </c>
       <c r="D2">
-        <v>7.519677512647056</v>
+        <v>9.042552701705485</v>
       </c>
       <c r="E2">
-        <v>11.03480306866727</v>
+        <v>13.63193449268419</v>
       </c>
       <c r="F2">
-        <v>23.7736247522927</v>
+        <v>33.75237425238932</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669784106</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.402334870194331</v>
+        <v>9.969556080289117</v>
       </c>
       <c r="K2">
-        <v>11.84372607991281</v>
+        <v>10.71800481330001</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.52061675796652</v>
+        <v>19.32907680124845</v>
       </c>
       <c r="O2">
-        <v>16.72369894075791</v>
+        <v>25.54615279963842</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.62798616078626</v>
+        <v>11.08334338012602</v>
       </c>
       <c r="C3">
-        <v>6.859128757149711</v>
+        <v>4.023729007910274</v>
       </c>
       <c r="D3">
-        <v>7.148912551768666</v>
+        <v>8.982006661439817</v>
       </c>
       <c r="E3">
-        <v>10.55385111076729</v>
+        <v>13.56835971976752</v>
       </c>
       <c r="F3">
-        <v>23.38329887083976</v>
+        <v>33.79094773599694</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.293902839029773</v>
+        <v>9.975706601826554</v>
       </c>
       <c r="K3">
-        <v>11.1055696946796</v>
+        <v>10.54684682131505</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.7253843428574</v>
+        <v>19.39007248772496</v>
       </c>
       <c r="O3">
-        <v>16.67641897281316</v>
+        <v>25.61521826754151</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.03402205494779</v>
+        <v>10.92732458837222</v>
       </c>
       <c r="C4">
-        <v>6.595477273666761</v>
+        <v>3.879456251352135</v>
       </c>
       <c r="D4">
-        <v>6.914320690300126</v>
+        <v>8.946288665051929</v>
       </c>
       <c r="E4">
-        <v>10.25333908320256</v>
+        <v>13.53206170138489</v>
       </c>
       <c r="F4">
-        <v>23.16007486803698</v>
+        <v>33.82232951032461</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.229868778707559</v>
+        <v>9.981048082998315</v>
       </c>
       <c r="K4">
-        <v>10.62704678837978</v>
+        <v>10.44218786508059</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.85387062100274</v>
+        <v>19.42926453858485</v>
       </c>
       <c r="O4">
-        <v>16.66081741129938</v>
+        <v>25.66271270910531</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.78361302768522</v>
+        <v>10.8636521272036</v>
       </c>
       <c r="C5">
-        <v>6.48485794011415</v>
+        <v>3.818859765321839</v>
       </c>
       <c r="D5">
-        <v>6.817101133749805</v>
+        <v>8.932112424210437</v>
       </c>
       <c r="E5">
-        <v>10.1297497469449</v>
+        <v>13.51797013938423</v>
       </c>
       <c r="F5">
-        <v>23.07324111968244</v>
+        <v>33.83705123336836</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.204429881493871</v>
+        <v>9.983618710367329</v>
       </c>
       <c r="K5">
-        <v>10.42569102091458</v>
+        <v>10.39970067960932</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.90694610976296</v>
+        <v>19.44567458088816</v>
       </c>
       <c r="O5">
-        <v>16.6577223954321</v>
+        <v>25.68334431743715</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.74152622231826</v>
+        <v>10.85307654011704</v>
       </c>
       <c r="C6">
-        <v>6.466299027234277</v>
+        <v>3.808689879186618</v>
       </c>
       <c r="D6">
-        <v>6.80086398455531</v>
+        <v>8.929781726051905</v>
       </c>
       <c r="E6">
-        <v>10.1091654110858</v>
+        <v>13.51567286425034</v>
       </c>
       <c r="F6">
-        <v>23.05907168428536</v>
+        <v>33.83961245800076</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.200245798470704</v>
+        <v>9.984069362787915</v>
       </c>
       <c r="K6">
-        <v>10.39187267910989</v>
+        <v>10.39265707545961</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.91580316198122</v>
+        <v>19.4484260068301</v>
       </c>
       <c r="O6">
-        <v>16.65740214505808</v>
+        <v>25.6868472562441</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.03067888078744</v>
+        <v>10.92646613068221</v>
       </c>
       <c r="C7">
-        <v>6.593998235631352</v>
+        <v>3.878646283178275</v>
       </c>
       <c r="D7">
-        <v>6.913015940145923</v>
+        <v>8.946095927976961</v>
       </c>
       <c r="E7">
-        <v>10.25167662702522</v>
+        <v>13.53186880764541</v>
       </c>
       <c r="F7">
-        <v>23.15888707995727</v>
+        <v>33.82252022785546</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.229523026791644</v>
+        <v>9.981081155932685</v>
       </c>
       <c r="K7">
-        <v>10.62435694491948</v>
+        <v>10.44161414063487</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.85458348602775</v>
+        <v>19.42948407107261</v>
       </c>
       <c r="O7">
-        <v>16.66076261274567</v>
+        <v>25.66298578568843</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.23335025010961</v>
+        <v>11.24924244445615</v>
       </c>
       <c r="C8">
-        <v>7.129489909204138</v>
+        <v>4.171421182082017</v>
       </c>
       <c r="D8">
-        <v>7.393346439785528</v>
+        <v>9.021381674150639</v>
       </c>
       <c r="E8">
-        <v>10.87015269560633</v>
+        <v>13.60945323379126</v>
       </c>
       <c r="F8">
-        <v>23.63563174172459</v>
+        <v>33.76407565702562</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.364429483818311</v>
+        <v>9.971352220041325</v>
       </c>
       <c r="K8">
-        <v>11.59445955829682</v>
+        <v>10.65893162965605</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.59066219191007</v>
+        <v>19.34974767665815</v>
       </c>
       <c r="O8">
-        <v>16.7045421009502</v>
+        <v>25.56890929775303</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.33169055476299</v>
+        <v>11.87227593528205</v>
       </c>
       <c r="C9">
-        <v>8.076898869228241</v>
+        <v>4.686488946344082</v>
       </c>
       <c r="D9">
-        <v>8.275743879445557</v>
+        <v>9.180000155021526</v>
       </c>
       <c r="E9">
-        <v>12.03489527266396</v>
+        <v>13.7827492692501</v>
       </c>
       <c r="F9">
-        <v>24.70045624084413</v>
+        <v>33.71061283972622</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.64841962162461</v>
+        <v>9.964671247501002</v>
       </c>
       <c r="K9">
-        <v>13.29639213653511</v>
+        <v>11.08620502099724</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>12.09390915377497</v>
+        <v>19.20713362415497</v>
       </c>
       <c r="O9">
-        <v>16.90186911991686</v>
+        <v>25.42488916265347</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.71799836272535</v>
+        <v>12.31890842837108</v>
       </c>
       <c r="C10">
-        <v>8.709461412219346</v>
+        <v>5.027773412406093</v>
       </c>
       <c r="D10">
-        <v>8.883011769997367</v>
+        <v>9.302420473098733</v>
       </c>
       <c r="E10">
-        <v>12.8538063443481</v>
+        <v>13.9221515361449</v>
       </c>
       <c r="F10">
-        <v>25.5607329331312</v>
+        <v>33.70866542213513</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.867900997289031</v>
+        <v>9.967288165549398</v>
       </c>
       <c r="K10">
-        <v>14.42554334007979</v>
+        <v>11.39776038798466</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.74001070388396</v>
+        <v>19.11064990517346</v>
       </c>
       <c r="O10">
-        <v>17.1212661317656</v>
+        <v>25.34386567196773</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.31565272495672</v>
+        <v>12.51870349243874</v>
       </c>
       <c r="C11">
-        <v>8.983401727911694</v>
+        <v>5.17481213832419</v>
       </c>
       <c r="D11">
-        <v>9.14966936494406</v>
+        <v>9.359208833258014</v>
       </c>
       <c r="E11">
-        <v>13.21718501863274</v>
+        <v>13.9880030519287</v>
       </c>
       <c r="F11">
-        <v>25.96862680739799</v>
+        <v>33.71588117223126</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.969889038977659</v>
+        <v>9.970103536249081</v>
       </c>
       <c r="K11">
-        <v>14.91322478396253</v>
+        <v>11.53836425012388</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.58103618215152</v>
+        <v>19.06853957198299</v>
       </c>
       <c r="O11">
-        <v>17.23853058380987</v>
+        <v>25.31241129402905</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.53728560987076</v>
+        <v>12.59380008679454</v>
       </c>
       <c r="C12">
-        <v>9.085152730542504</v>
+        <v>5.229301613752214</v>
       </c>
       <c r="D12">
-        <v>9.249225174058887</v>
+        <v>9.380855407790515</v>
       </c>
       <c r="E12">
-        <v>13.3533989085473</v>
+        <v>14.01327268560497</v>
       </c>
       <c r="F12">
-        <v>26.12542718763692</v>
+        <v>33.71977668883905</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>7.008800799755955</v>
+        <v>9.971402296710091</v>
       </c>
       <c r="K12">
-        <v>15.09419468214267</v>
+        <v>11.59139645286061</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.52109328942411</v>
+        <v>19.05284816355173</v>
       </c>
       <c r="O12">
-        <v>17.28554582012444</v>
+        <v>25.3012789670536</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.48976047571046</v>
+        <v>12.57765280612815</v>
       </c>
       <c r="C13">
-        <v>9.063326990579078</v>
+        <v>5.217619425923602</v>
       </c>
       <c r="D13">
-        <v>9.227847834526164</v>
+        <v>9.376187368526114</v>
       </c>
       <c r="E13">
-        <v>13.32412561914836</v>
+        <v>14.00781588503489</v>
       </c>
       <c r="F13">
-        <v>26.091553980133</v>
+        <v>33.71888603194335</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7.00040776916223</v>
+        <v>9.971112256236104</v>
       </c>
       <c r="K13">
-        <v>15.05538379723106</v>
+        <v>11.57998519228792</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.53399216117298</v>
+        <v>19.05621627288575</v>
       </c>
       <c r="O13">
-        <v>17.27530264903463</v>
+        <v>25.30364185155911</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.33398017280917</v>
+        <v>12.52489339975292</v>
       </c>
       <c r="C14">
-        <v>8.991812580007762</v>
+        <v>5.179318935079358</v>
       </c>
       <c r="D14">
-        <v>9.157888576395875</v>
+        <v>9.36098695495801</v>
       </c>
       <c r="E14">
-        <v>13.22841963392961</v>
+        <v>13.9900754253609</v>
       </c>
       <c r="F14">
-        <v>25.98148020077437</v>
+        <v>33.71617836328579</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.97308459288572</v>
+        <v>9.970205729879554</v>
       </c>
       <c r="K14">
-        <v>14.92818733772102</v>
+        <v>11.54273175622753</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.57609968147157</v>
+        <v>19.06724352933519</v>
       </c>
       <c r="O14">
-        <v>17.24234570104003</v>
+        <v>25.31147981395905</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.23795173304195</v>
+        <v>12.49250147512428</v>
       </c>
       <c r="C15">
-        <v>8.947749687291278</v>
+        <v>5.155703439499151</v>
       </c>
       <c r="D15">
-        <v>9.114850303739443</v>
+        <v>9.351694286106676</v>
       </c>
       <c r="E15">
-        <v>13.16961406062944</v>
+        <v>13.97925173678215</v>
       </c>
       <c r="F15">
-        <v>25.91436037589913</v>
+        <v>33.71467123159256</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.956385778951985</v>
+        <v>9.969680720564128</v>
       </c>
       <c r="K15">
-        <v>14.84979438966976</v>
+        <v>11.51988397577942</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.6019242604758</v>
+        <v>19.07403119768933</v>
       </c>
       <c r="O15">
-        <v>17.22250134714332</v>
+        <v>25.3163822584167</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.6782813700633</v>
+        <v>12.30577676586264</v>
       </c>
       <c r="C16">
-        <v>8.691280854635137</v>
+        <v>5.01799791354272</v>
       </c>
       <c r="D16">
-        <v>8.865388182142951</v>
+        <v>9.29872997146445</v>
       </c>
       <c r="E16">
-        <v>12.82986786813043</v>
+        <v>13.9178955521163</v>
       </c>
       <c r="F16">
-        <v>25.53440569846729</v>
+        <v>33.70835673581833</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.861277486635861</v>
+        <v>9.96713678759202</v>
       </c>
       <c r="K16">
-        <v>14.39315204549654</v>
+        <v>11.38854467088103</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.75043788930522</v>
+        <v>19.11343764292373</v>
       </c>
       <c r="O16">
-        <v>17.11396252661591</v>
+        <v>25.34603017615582</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.32653385979214</v>
+        <v>12.19030611210327</v>
       </c>
       <c r="C17">
-        <v>8.530407127633087</v>
+        <v>4.931408578331683</v>
       </c>
       <c r="D17">
-        <v>8.709860842951453</v>
+        <v>9.266508217620974</v>
       </c>
       <c r="E17">
-        <v>12.61904316836518</v>
+        <v>13.88086750237046</v>
       </c>
       <c r="F17">
-        <v>25.30552604194713</v>
+        <v>33.70655691845108</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.803468234858742</v>
+        <v>9.965991661571422</v>
       </c>
       <c r="K17">
-        <v>14.10638429046874</v>
+        <v>11.30764825626559</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.84203995423224</v>
+        <v>19.13806742604474</v>
       </c>
       <c r="O17">
-        <v>17.05192121565771</v>
+        <v>25.36560349759319</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.12110985420262</v>
+        <v>12.12357644907461</v>
       </c>
       <c r="C18">
-        <v>8.436575940558482</v>
+        <v>4.880832015915662</v>
       </c>
       <c r="D18">
-        <v>8.619504591466534</v>
+        <v>9.248079505330779</v>
       </c>
       <c r="E18">
-        <v>12.49692460564515</v>
+        <v>13.85980037940445</v>
       </c>
       <c r="F18">
-        <v>25.17544072228602</v>
+        <v>33.70628444649622</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.770420734608111</v>
+        <v>9.965486029662593</v>
       </c>
       <c r="K18">
-        <v>13.93899601958538</v>
+        <v>11.26101581099818</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.89491883221605</v>
+        <v>19.15240149405546</v>
       </c>
       <c r="O18">
-        <v>17.01787444622183</v>
+        <v>25.3773700759965</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.05102127642887</v>
+        <v>12.10093138632477</v>
       </c>
       <c r="C19">
-        <v>8.404582896283012</v>
+        <v>4.863575297050705</v>
       </c>
       <c r="D19">
-        <v>8.588758239367055</v>
+        <v>9.241858271195598</v>
       </c>
       <c r="E19">
-        <v>12.45543258282772</v>
+        <v>13.85270750794805</v>
       </c>
       <c r="F19">
-        <v>25.13166526028399</v>
+        <v>33.70632323756514</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.759266808849842</v>
+        <v>9.965341140808837</v>
       </c>
       <c r="K19">
-        <v>13.88190008508397</v>
+        <v>11.24521073180788</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.91285660970408</v>
+        <v>19.15728359670773</v>
       </c>
       <c r="O19">
-        <v>17.0066249886886</v>
+        <v>25.38144132066009</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.3642992549545</v>
+        <v>12.20263122074559</v>
       </c>
       <c r="C20">
-        <v>8.547667044495237</v>
+        <v>4.940706208365874</v>
       </c>
       <c r="D20">
-        <v>8.726510590324892</v>
+        <v>9.269927589393687</v>
       </c>
       <c r="E20">
-        <v>12.64157518631517</v>
+        <v>13.88478547613419</v>
       </c>
       <c r="F20">
-        <v>25.32972948886463</v>
+        <v>33.70666958309027</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.809601263887142</v>
+        <v>9.96609773278851</v>
       </c>
       <c r="K20">
-        <v>14.13716425917959</v>
+        <v>11.3162708415275</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.83226913720533</v>
+        <v>19.1354281991746</v>
       </c>
       <c r="O20">
-        <v>17.05835538631594</v>
+        <v>25.36346724090081</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.37986333124271</v>
+        <v>12.54040592846647</v>
       </c>
       <c r="C21">
-        <v>9.01287190406517</v>
+        <v>5.190601104266064</v>
       </c>
       <c r="D21">
-        <v>9.178476172024158</v>
+        <v>9.365447957532812</v>
       </c>
       <c r="E21">
-        <v>13.25656902532015</v>
+        <v>13.99527732908542</v>
       </c>
       <c r="F21">
-        <v>26.01374834929842</v>
+        <v>33.71694212560473</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.981102302496373</v>
+        <v>9.970465693599245</v>
       </c>
       <c r="K21">
-        <v>14.96564829249616</v>
+        <v>11.55368011765276</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.56372496876721</v>
+        <v>19.06399764936356</v>
       </c>
       <c r="O21">
-        <v>17.25195436071791</v>
+        <v>25.3091564661215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.01630837687742</v>
+        <v>12.75785740905395</v>
       </c>
       <c r="C22">
-        <v>9.305348963552737</v>
+        <v>5.346977516694239</v>
       </c>
       <c r="D22">
-        <v>9.465563322349469</v>
+        <v>9.428696535029388</v>
       </c>
       <c r="E22">
-        <v>13.65038004898984</v>
+        <v>14.06942325355137</v>
       </c>
       <c r="F22">
-        <v>26.47441533045282</v>
+        <v>33.73043356641631</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.094878006910927</v>
+        <v>9.974675854710595</v>
       </c>
       <c r="K22">
-        <v>15.48553533837361</v>
+        <v>11.7075868806754</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.38969894820884</v>
+        <v>19.01879863684462</v>
       </c>
       <c r="O22">
-        <v>17.39373688275229</v>
+        <v>25.27820113454456</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.67910283372008</v>
+        <v>12.64212528444784</v>
       </c>
       <c r="C23">
-        <v>9.150304247047773</v>
+        <v>5.264154510521908</v>
       </c>
       <c r="D23">
-        <v>9.313110016674827</v>
+        <v>9.394869814903201</v>
       </c>
       <c r="E23">
-        <v>13.44095910630651</v>
+        <v>14.02967915956223</v>
       </c>
       <c r="F23">
-        <v>26.22731515659408</v>
+        <v>33.72261363180682</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.03400447530632</v>
+        <v>9.972305158607853</v>
       </c>
       <c r="K23">
-        <v>15.21002466290512</v>
+        <v>11.62557456533165</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.48245552446668</v>
+        <v>19.04278671384787</v>
       </c>
       <c r="O23">
-        <v>17.31663751087228</v>
+        <v>25.29430665295631</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.34723549038597</v>
+        <v>12.19706010495574</v>
       </c>
       <c r="C24">
-        <v>8.539868018538805</v>
+        <v>4.9365052259562</v>
       </c>
       <c r="D24">
-        <v>8.718986168803937</v>
+        <v>9.268381391174898</v>
       </c>
       <c r="E24">
-        <v>12.63139129782821</v>
+        <v>13.88301347114561</v>
       </c>
       <c r="F24">
-        <v>25.3187824332699</v>
+        <v>33.7066162728442</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.806827935146058</v>
+        <v>9.966049302221396</v>
       </c>
       <c r="K24">
-        <v>14.12325649203284</v>
+        <v>11.31237295320034</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.83668584950686</v>
+        <v>19.13662085129461</v>
       </c>
       <c r="O24">
-        <v>17.0554414543731</v>
+        <v>25.3644314427843</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.79155117691428</v>
+        <v>11.70533160283837</v>
       </c>
       <c r="C25">
-        <v>7.831715517252468</v>
+        <v>4.553606133814391</v>
       </c>
       <c r="D25">
-        <v>8.043955595789656</v>
+        <v>9.135995941296491</v>
       </c>
       <c r="E25">
-        <v>11.72580636375904</v>
+        <v>13.73368429218419</v>
       </c>
       <c r="F25">
-        <v>24.39858201285706</v>
+        <v>33.71852090139635</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.569615989300124</v>
+        <v>9.965154271169785</v>
       </c>
       <c r="K25">
-        <v>12.85736176344912</v>
+        <v>10.97081581670394</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>12.22622855299229</v>
+        <v>19.24425161500143</v>
       </c>
       <c r="O25">
-        <v>16.83586959121213</v>
+        <v>25.45950547494647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_209/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_209/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>11.33622468515676</v>
+        <v>13.54149532268304</v>
       </c>
       <c r="C2">
-        <v>4.24680420599453</v>
+        <v>7.267684072983124</v>
       </c>
       <c r="D2">
-        <v>9.042552701705485</v>
+        <v>7.519677512647115</v>
       </c>
       <c r="E2">
-        <v>13.63193449268419</v>
+        <v>11.0348030686673</v>
       </c>
       <c r="F2">
-        <v>33.75237425238932</v>
+        <v>23.77362475229284</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.969556080289117</v>
+        <v>6.402334870194314</v>
       </c>
       <c r="K2">
-        <v>10.71800481330001</v>
+        <v>11.84372607991278</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>19.32907680124845</v>
+        <v>12.52061675796659</v>
       </c>
       <c r="O2">
-        <v>25.54615279963842</v>
+        <v>16.72369894075799</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.08334338012602</v>
+        <v>12.62798616078629</v>
       </c>
       <c r="C3">
-        <v>4.023729007910274</v>
+        <v>6.859128757149811</v>
       </c>
       <c r="D3">
-        <v>8.982006661439817</v>
+        <v>7.148912551768719</v>
       </c>
       <c r="E3">
-        <v>13.56835971976752</v>
+        <v>10.55385111076728</v>
       </c>
       <c r="F3">
-        <v>33.79094773599694</v>
+        <v>23.38329887083971</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.975706601826554</v>
+        <v>6.293902839029706</v>
       </c>
       <c r="K3">
-        <v>10.54684682131505</v>
+        <v>11.10556969467966</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>19.39007248772496</v>
+        <v>12.72538434285737</v>
       </c>
       <c r="O3">
-        <v>25.61521826754151</v>
+        <v>16.67641897281307</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.92732458837222</v>
+        <v>12.03402205494783</v>
       </c>
       <c r="C4">
-        <v>3.879456251352135</v>
+        <v>6.595477273666601</v>
       </c>
       <c r="D4">
-        <v>8.946288665051929</v>
+        <v>6.914320690300084</v>
       </c>
       <c r="E4">
-        <v>13.53206170138489</v>
+        <v>10.25333908320252</v>
       </c>
       <c r="F4">
-        <v>33.82232951032461</v>
+        <v>23.16007486803679</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.981048082998315</v>
+        <v>6.229868778707544</v>
       </c>
       <c r="K4">
-        <v>10.44218786508059</v>
+        <v>10.62704678837982</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>19.42926453858485</v>
+        <v>12.85387062100268</v>
       </c>
       <c r="O4">
-        <v>25.66271270910531</v>
+        <v>16.66081741129925</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.8636521272036</v>
+        <v>11.78361302768523</v>
       </c>
       <c r="C5">
-        <v>3.818859765321839</v>
+        <v>6.484857940114195</v>
       </c>
       <c r="D5">
-        <v>8.932112424210437</v>
+        <v>6.817101133749714</v>
       </c>
       <c r="E5">
-        <v>13.51797013938423</v>
+        <v>10.12974974694491</v>
       </c>
       <c r="F5">
-        <v>33.83705123336836</v>
+        <v>23.07324111968235</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.983618710367329</v>
+        <v>6.204429881493924</v>
       </c>
       <c r="K5">
-        <v>10.39970067960932</v>
+        <v>10.42569102091459</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>19.44567458088816</v>
+        <v>12.90694610976296</v>
       </c>
       <c r="O5">
-        <v>25.68334431743715</v>
+        <v>16.65772239543207</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.85307654011704</v>
+        <v>11.74152622231835</v>
       </c>
       <c r="C6">
-        <v>3.808689879186618</v>
+        <v>6.466299027234104</v>
       </c>
       <c r="D6">
-        <v>8.929781726051905</v>
+        <v>6.800863984555236</v>
       </c>
       <c r="E6">
-        <v>13.51567286425034</v>
+        <v>10.1091654110857</v>
       </c>
       <c r="F6">
-        <v>33.83961245800076</v>
+        <v>23.05907168428505</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.984069362787915</v>
+        <v>6.20024579847068</v>
       </c>
       <c r="K6">
-        <v>10.39265707545961</v>
+        <v>10.39187267910993</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>19.4484260068301</v>
+        <v>12.91580316198115</v>
       </c>
       <c r="O6">
-        <v>25.6868472562441</v>
+        <v>16.65740214505784</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.92646613068221</v>
+        <v>12.03067888078752</v>
       </c>
       <c r="C7">
-        <v>3.878646283178275</v>
+        <v>6.593998235631291</v>
       </c>
       <c r="D7">
-        <v>8.946095927976961</v>
+        <v>6.913015940145979</v>
       </c>
       <c r="E7">
-        <v>13.53186880764541</v>
+        <v>10.25167662702528</v>
       </c>
       <c r="F7">
-        <v>33.82252022785546</v>
+        <v>23.15888707995716</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.981081155932685</v>
+        <v>6.229523026791642</v>
       </c>
       <c r="K7">
-        <v>10.44161414063487</v>
+        <v>10.62435694491954</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>19.42948407107261</v>
+        <v>12.85458348602772</v>
       </c>
       <c r="O7">
-        <v>25.66298578568843</v>
+        <v>16.66076261274552</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.24924244445615</v>
+        <v>13.23335025010958</v>
       </c>
       <c r="C8">
-        <v>4.171421182082017</v>
+        <v>7.129489909204281</v>
       </c>
       <c r="D8">
-        <v>9.021381674150639</v>
+        <v>7.393346439785556</v>
       </c>
       <c r="E8">
-        <v>13.60945323379126</v>
+        <v>10.87015269560634</v>
       </c>
       <c r="F8">
-        <v>33.76407565702562</v>
+        <v>23.63563174172456</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.971352220041325</v>
+        <v>6.364429483818262</v>
       </c>
       <c r="K8">
-        <v>10.65893162965605</v>
+        <v>11.59445955829684</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>19.34974767665815</v>
+        <v>12.59066219191001</v>
       </c>
       <c r="O8">
-        <v>25.56890929775303</v>
+        <v>16.70454210095011</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.87227593528205</v>
+        <v>15.33169055476299</v>
       </c>
       <c r="C9">
-        <v>4.686488946344082</v>
+        <v>8.076898869228183</v>
       </c>
       <c r="D9">
-        <v>9.180000155021526</v>
+        <v>8.2757438794455</v>
       </c>
       <c r="E9">
-        <v>13.7827492692501</v>
+        <v>12.03489527266396</v>
       </c>
       <c r="F9">
-        <v>33.71061283972622</v>
+        <v>24.70045624084403</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.964671247501002</v>
+        <v>6.648419621624678</v>
       </c>
       <c r="K9">
-        <v>11.08620502099724</v>
+        <v>13.29639213653511</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>19.20713362415497</v>
+        <v>12.0939091537749</v>
       </c>
       <c r="O9">
-        <v>25.42488916265347</v>
+        <v>16.90186911991681</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.31890842837108</v>
+        <v>16.71799836272535</v>
       </c>
       <c r="C10">
-        <v>5.027773412406093</v>
+        <v>8.709461412219424</v>
       </c>
       <c r="D10">
-        <v>9.302420473098733</v>
+        <v>8.883011769997376</v>
       </c>
       <c r="E10">
-        <v>13.9221515361449</v>
+        <v>12.8538063443481</v>
       </c>
       <c r="F10">
-        <v>33.70866542213513</v>
+        <v>25.56073293313117</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.967288165549398</v>
+        <v>6.867900997288981</v>
       </c>
       <c r="K10">
-        <v>11.39776038798466</v>
+        <v>14.42554334007979</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>19.11064990517346</v>
+        <v>11.74001070388392</v>
       </c>
       <c r="O10">
-        <v>25.34386567196773</v>
+        <v>17.12126613176551</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.51870349243874</v>
+        <v>17.3156527249568</v>
       </c>
       <c r="C11">
-        <v>5.17481213832419</v>
+        <v>8.983401727911616</v>
       </c>
       <c r="D11">
-        <v>9.359208833258014</v>
+        <v>9.149669364944044</v>
       </c>
       <c r="E11">
-        <v>13.9880030519287</v>
+        <v>13.21718501863272</v>
       </c>
       <c r="F11">
-        <v>33.71588117223126</v>
+        <v>25.96862680739794</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.970103536249081</v>
+        <v>6.969889038977664</v>
       </c>
       <c r="K11">
-        <v>11.53836425012388</v>
+        <v>14.91322478396255</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>19.06853957198299</v>
+        <v>11.58103618215149</v>
       </c>
       <c r="O11">
-        <v>25.31241129402905</v>
+        <v>17.23853058380981</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.59380008679454</v>
+        <v>17.53728560987078</v>
       </c>
       <c r="C12">
-        <v>5.229301613752214</v>
+        <v>9.085152730542504</v>
       </c>
       <c r="D12">
-        <v>9.380855407790515</v>
+        <v>9.249225174058887</v>
       </c>
       <c r="E12">
-        <v>14.01327268560497</v>
+        <v>13.35339890854732</v>
       </c>
       <c r="F12">
-        <v>33.71977668883905</v>
+        <v>26.12542718763683</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.971402296710091</v>
+        <v>7.008800799755976</v>
       </c>
       <c r="K12">
-        <v>11.59139645286061</v>
+        <v>15.09419468214267</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>19.05284816355173</v>
+        <v>11.52109328942404</v>
       </c>
       <c r="O12">
-        <v>25.3012789670536</v>
+        <v>17.28554582012435</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.57765280612815</v>
+        <v>17.48976047571055</v>
       </c>
       <c r="C13">
-        <v>5.217619425923602</v>
+        <v>9.063326990579016</v>
       </c>
       <c r="D13">
-        <v>9.376187368526114</v>
+        <v>9.227847834526154</v>
       </c>
       <c r="E13">
-        <v>14.00781588503489</v>
+        <v>13.32412561914836</v>
       </c>
       <c r="F13">
-        <v>33.71888603194335</v>
+        <v>26.09155398013295</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.971112256236104</v>
+        <v>7.000407769162225</v>
       </c>
       <c r="K13">
-        <v>11.57998519228792</v>
+        <v>15.05538379723109</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>19.05621627288575</v>
+        <v>11.53399216117292</v>
       </c>
       <c r="O13">
-        <v>25.30364185155911</v>
+        <v>17.2753026490346</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.52489339975292</v>
+        <v>17.33398017280912</v>
       </c>
       <c r="C14">
-        <v>5.179318935079358</v>
+        <v>8.991812580008011</v>
       </c>
       <c r="D14">
-        <v>9.36098695495801</v>
+        <v>9.157888576395882</v>
       </c>
       <c r="E14">
-        <v>13.9900754253609</v>
+        <v>13.22841963392961</v>
       </c>
       <c r="F14">
-        <v>33.71617836328579</v>
+        <v>25.98148020077416</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.970205729879554</v>
+        <v>6.973084592885683</v>
       </c>
       <c r="K14">
-        <v>11.54273175622753</v>
+        <v>14.9281873377211</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>19.06724352933519</v>
+        <v>11.57609968147147</v>
       </c>
       <c r="O14">
-        <v>25.31147981395905</v>
+        <v>17.2423457010398</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.49250147512428</v>
+        <v>17.23795173304192</v>
       </c>
       <c r="C15">
-        <v>5.155703439499151</v>
+        <v>8.947749687291402</v>
       </c>
       <c r="D15">
-        <v>9.351694286106676</v>
+        <v>9.114850303739425</v>
       </c>
       <c r="E15">
-        <v>13.97925173678215</v>
+        <v>13.16961406062939</v>
       </c>
       <c r="F15">
-        <v>33.71467123159256</v>
+        <v>25.91436037589903</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.969680720564128</v>
+        <v>6.956385778951943</v>
       </c>
       <c r="K15">
-        <v>11.51988397577942</v>
+        <v>14.84979438966975</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>19.07403119768933</v>
+        <v>11.60192426047574</v>
       </c>
       <c r="O15">
-        <v>25.3163822584167</v>
+        <v>17.22250134714327</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.30577676586264</v>
+        <v>16.67828137006331</v>
       </c>
       <c r="C16">
-        <v>5.01799791354272</v>
+        <v>8.691280854635201</v>
       </c>
       <c r="D16">
-        <v>9.29872997146445</v>
+        <v>8.865388182142951</v>
       </c>
       <c r="E16">
-        <v>13.9178955521163</v>
+        <v>12.82986786813044</v>
       </c>
       <c r="F16">
-        <v>33.70835673581833</v>
+        <v>25.53440569846728</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.96713678759202</v>
+        <v>6.861277486635872</v>
       </c>
       <c r="K16">
-        <v>11.38854467088103</v>
+        <v>14.39315204549657</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>19.11343764292373</v>
+        <v>11.75043788930525</v>
       </c>
       <c r="O16">
-        <v>25.34603017615582</v>
+        <v>17.11396252661591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.19030611210327</v>
+        <v>16.3265338597922</v>
       </c>
       <c r="C17">
-        <v>4.931408578331683</v>
+        <v>8.530407127632946</v>
       </c>
       <c r="D17">
-        <v>9.266508217620974</v>
+        <v>8.709860842951445</v>
       </c>
       <c r="E17">
-        <v>13.88086750237046</v>
+        <v>12.61904316836517</v>
       </c>
       <c r="F17">
-        <v>33.70655691845108</v>
+        <v>25.30552604194697</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.965991661571422</v>
+        <v>6.803468234858761</v>
       </c>
       <c r="K17">
-        <v>11.30764825626559</v>
+        <v>14.10638429046874</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>19.13806742604474</v>
+        <v>11.84203995423214</v>
       </c>
       <c r="O17">
-        <v>25.36560349759319</v>
+        <v>17.0519212156576</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.12357644907461</v>
+        <v>16.12110985420258</v>
       </c>
       <c r="C18">
-        <v>4.880832015915662</v>
+        <v>8.43657594055864</v>
       </c>
       <c r="D18">
-        <v>9.248079505330779</v>
+        <v>8.619504591466491</v>
       </c>
       <c r="E18">
-        <v>13.85980037940445</v>
+        <v>12.49692460564515</v>
       </c>
       <c r="F18">
-        <v>33.70628444649622</v>
+        <v>25.17544072228591</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.965486029662593</v>
+        <v>6.770420734608153</v>
       </c>
       <c r="K18">
-        <v>11.26101581099818</v>
+        <v>13.93899601958541</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>19.15240149405546</v>
+        <v>11.89491883221601</v>
       </c>
       <c r="O18">
-        <v>25.3773700759965</v>
+        <v>17.01787444622177</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.10093138632477</v>
+        <v>16.05102127642901</v>
       </c>
       <c r="C19">
-        <v>4.863575297050705</v>
+        <v>8.404582896282928</v>
       </c>
       <c r="D19">
-        <v>9.241858271195598</v>
+        <v>8.588758239367008</v>
       </c>
       <c r="E19">
-        <v>13.85270750794805</v>
+        <v>12.45543258282773</v>
       </c>
       <c r="F19">
-        <v>33.70632323756514</v>
+        <v>25.13166526028374</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.965341140808837</v>
+        <v>6.75926680884982</v>
       </c>
       <c r="K19">
-        <v>11.24521073180788</v>
+        <v>13.88190008508406</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>19.15728359670773</v>
+        <v>11.91285660970397</v>
       </c>
       <c r="O19">
-        <v>25.38144132066009</v>
+        <v>17.00662498868835</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.20263122074559</v>
+        <v>16.3642992549545</v>
       </c>
       <c r="C20">
-        <v>4.940706208365874</v>
+        <v>8.547667044495251</v>
       </c>
       <c r="D20">
-        <v>9.269927589393687</v>
+        <v>8.726510590324878</v>
       </c>
       <c r="E20">
-        <v>13.88478547613419</v>
+        <v>12.64157518631518</v>
       </c>
       <c r="F20">
-        <v>33.70666958309027</v>
+        <v>25.32972948886457</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.96609773278851</v>
+        <v>6.809601263887183</v>
       </c>
       <c r="K20">
-        <v>11.3162708415275</v>
+        <v>14.13716425917957</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>19.1354281991746</v>
+        <v>11.8322691372053</v>
       </c>
       <c r="O20">
-        <v>25.36346724090081</v>
+        <v>17.05835538631593</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.54040592846647</v>
+        <v>17.37986333124267</v>
       </c>
       <c r="C21">
-        <v>5.190601104266064</v>
+        <v>9.012871904065296</v>
       </c>
       <c r="D21">
-        <v>9.365447957532812</v>
+        <v>9.178476172024094</v>
       </c>
       <c r="E21">
-        <v>13.99527732908542</v>
+        <v>13.25656902532012</v>
       </c>
       <c r="F21">
-        <v>33.71694212560473</v>
+        <v>26.01374834929841</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.970465693599245</v>
+        <v>6.981102302496405</v>
       </c>
       <c r="K21">
-        <v>11.55368011765276</v>
+        <v>14.96564829249614</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>19.06399764936356</v>
+        <v>11.56372496876731</v>
       </c>
       <c r="O21">
-        <v>25.3091564661215</v>
+        <v>17.25195436071798</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.75785740905395</v>
+        <v>18.01630837687742</v>
       </c>
       <c r="C22">
-        <v>5.346977516694239</v>
+        <v>9.305348963552659</v>
       </c>
       <c r="D22">
-        <v>9.428696535029388</v>
+        <v>9.465563322349469</v>
       </c>
       <c r="E22">
-        <v>14.06942325355137</v>
+        <v>13.65038004898983</v>
       </c>
       <c r="F22">
-        <v>33.73043356641631</v>
+        <v>26.47441533045287</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.974675854710595</v>
+        <v>7.094878006910946</v>
       </c>
       <c r="K22">
-        <v>11.7075868806754</v>
+        <v>15.48553533837359</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>19.01879863684462</v>
+        <v>11.38969894820884</v>
       </c>
       <c r="O22">
-        <v>25.27820113454456</v>
+        <v>17.3937368827523</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.64212528444784</v>
+        <v>17.67910283372009</v>
       </c>
       <c r="C23">
-        <v>5.264154510521908</v>
+        <v>9.150304247047709</v>
       </c>
       <c r="D23">
-        <v>9.394869814903201</v>
+        <v>9.313110016674825</v>
       </c>
       <c r="E23">
-        <v>14.02967915956223</v>
+        <v>13.4409591063065</v>
       </c>
       <c r="F23">
-        <v>33.72261363180682</v>
+        <v>26.22731515659409</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.972305158607853</v>
+        <v>7.034004475306313</v>
       </c>
       <c r="K23">
-        <v>11.62557456533165</v>
+        <v>15.21002466290509</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>19.04278671384787</v>
+        <v>11.48245552446665</v>
       </c>
       <c r="O23">
-        <v>25.29430665295631</v>
+        <v>17.31663751087228</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.19706010495574</v>
+        <v>16.34723549038595</v>
       </c>
       <c r="C24">
-        <v>4.9365052259562</v>
+        <v>8.53986801853887</v>
       </c>
       <c r="D24">
-        <v>9.268381391174898</v>
+        <v>8.718986168803928</v>
       </c>
       <c r="E24">
-        <v>13.88301347114561</v>
+        <v>12.63139129782819</v>
       </c>
       <c r="F24">
-        <v>33.7066162728442</v>
+        <v>25.31878243326984</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.966049302221396</v>
+        <v>6.806827935146016</v>
       </c>
       <c r="K24">
-        <v>11.31237295320034</v>
+        <v>14.12325649203286</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>19.13662085129461</v>
+        <v>11.83668584950683</v>
       </c>
       <c r="O24">
-        <v>25.3644314427843</v>
+        <v>17.05544145437305</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.70533160283837</v>
+        <v>14.79155117691424</v>
       </c>
       <c r="C25">
-        <v>4.553606133814391</v>
+        <v>7.831715517252586</v>
       </c>
       <c r="D25">
-        <v>9.135995941296491</v>
+        <v>8.043955595789663</v>
       </c>
       <c r="E25">
-        <v>13.73368429218419</v>
+        <v>11.72580636375902</v>
       </c>
       <c r="F25">
-        <v>33.71852090139635</v>
+        <v>24.39858201285712</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.965154271169785</v>
+        <v>6.569615989300079</v>
       </c>
       <c r="K25">
-        <v>10.97081581670394</v>
+        <v>12.8573617634491</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>19.24425161500143</v>
+        <v>12.22622855299232</v>
       </c>
       <c r="O25">
-        <v>25.45950547494647</v>
+        <v>16.83586959121216</v>
       </c>
     </row>
   </sheetData>
